--- a/files/LC9评分标准.xlsx
+++ b/files/LC9评分标准.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\001\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1A8897-E424-413D-9457-F010E32E84D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC5122A-7358-4305-B4CB-279C840E9513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2210" windowWidth="21100" windowHeight="17770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,14 +534,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +850,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -861,13 +861,13 @@
     <col min="4" max="4" width="3.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="31.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -880,8 +880,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -892,7 +892,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -903,7 +903,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -913,8 +913,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -924,8 +924,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -946,8 +946,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -957,15 +957,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="62.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:4" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -975,8 +975,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="89" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:4" ht="85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
